--- a/Data/SocialJetLag_DB.xlsx
+++ b/Data/SocialJetLag_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14640" windowHeight="1845" tabRatio="868" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14640" windowHeight="1845" tabRatio="868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="visits" sheetId="5" r:id="rId1"/>
@@ -17,19 +17,21 @@
     <sheet name="tag_list" sheetId="7" r:id="rId8"/>
     <sheet name="visits_old" sheetId="8" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="bat" sheetId="11" r:id="rId11"/>
+    <sheet name="poor_data" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">activity_calibration!$A$1:$G$386</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">birds!$A$1:$N$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">activity_calibration!$A$1:$G$444</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">birds!$A$1:$N$212</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">devices!$A$1:$E$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">visits!$A$1:$I$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">visits!$A$1:$I$304</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="558">
   <si>
     <t>date</t>
   </si>
@@ -1519,15 +1521,9 @@
     <t>e</t>
   </si>
   <si>
-    <t>slep</t>
-  </si>
-  <si>
     <t>tail feathers cut</t>
   </si>
   <si>
-    <t>was off already</t>
-  </si>
-  <si>
     <t>was off</t>
   </si>
   <si>
@@ -1549,9 +1545,6 @@
     <t>tape</t>
   </si>
   <si>
-    <t>4 pieces of tape</t>
-  </si>
-  <si>
     <t>molt in food in 7</t>
   </si>
   <si>
@@ -1559,6 +1552,159 @@
   </si>
   <si>
     <t>ms5</t>
+  </si>
+  <si>
+    <t>4 pieces of tape; broken tail</t>
+  </si>
+  <si>
+    <t>reattach</t>
+  </si>
+  <si>
+    <t>batt</t>
+  </si>
+  <si>
+    <t>on the ground</t>
+  </si>
+  <si>
+    <t>wu3</t>
+  </si>
+  <si>
+    <t>wu4</t>
+  </si>
+  <si>
+    <t>wu5</t>
+  </si>
+  <si>
+    <t>wu6</t>
+  </si>
+  <si>
+    <t>wu7</t>
+  </si>
+  <si>
+    <t>stay single</t>
+  </si>
+  <si>
+    <t>logger found on the ground, probably fall off during catching</t>
+  </si>
+  <si>
+    <t>found on the ground/wett</t>
+  </si>
+  <si>
+    <t>leather left on; rough released tim</t>
+  </si>
+  <si>
+    <t>2017-08-15 10:42:40d</t>
+  </si>
+  <si>
+    <t>broken tail</t>
+  </si>
+  <si>
+    <t>feathers + food</t>
+  </si>
+  <si>
+    <t>ffo</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>feathers, food, floor</t>
+  </si>
+  <si>
+    <t>feathers, food, floor; A13 found on the ground</t>
+  </si>
+  <si>
+    <t>time not precise; one blink when connected; charged, try starting - turned off, no response after</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>catching, cleaning</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>no noise; door lists etc.</t>
+  </si>
+  <si>
+    <t>hydrobia and work outside</t>
+  </si>
+  <si>
+    <t>cleaning floor hall</t>
+  </si>
+  <si>
+    <t>hydrobia</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>cut part of the loose yellow tape</t>
+  </si>
+  <si>
+    <t>brought bleach</t>
+  </si>
+  <si>
+    <t>catching, cleaning, releasing</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>processing, releasing</t>
+  </si>
+  <si>
+    <t>cpr</t>
+  </si>
+  <si>
+    <t>15:18</t>
+  </si>
+  <si>
+    <t>release w3</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>catching cleaning w2</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>release w2, fixing lights = noise</t>
+  </si>
+  <si>
+    <t>processing and releasing</t>
+  </si>
+  <si>
+    <t>was off already; after charching cannot connect</t>
+  </si>
+  <si>
+    <t>after re-charging could connect to it and download, but only few days of data</t>
+  </si>
+  <si>
+    <t>after re-charging could connect to it 4.14 batt and download, but only few days of data</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>very poor reading</t>
+  </si>
+  <si>
+    <t>time not precise; one blink when connected; charged, but now response to the magnet</t>
+  </si>
+  <si>
+    <t>time not precise; several blinks when not connected, after connection nothing, charged (after charging blinking like turning of then nothing)</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1653,6 +1799,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,13 +2105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A206" sqref="A206"/>
+      <selection pane="bottomRight" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,7 +6017,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42951</v>
       </c>
@@ -5889,7 +6037,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42951</v>
       </c>
@@ -5909,7 +6057,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42951</v>
       </c>
@@ -5929,7 +6077,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42951</v>
       </c>
@@ -5949,7 +6097,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42951</v>
       </c>
@@ -5969,7 +6117,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42951</v>
       </c>
@@ -5989,7 +6137,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42951</v>
       </c>
@@ -6009,7 +6157,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42952</v>
       </c>
@@ -6029,7 +6177,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42952</v>
       </c>
@@ -6049,82 +6197,2121 @@
         <v>371</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>42953</v>
+        <v>42952</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="C202" s="2">
-        <v>0.87708333333333333</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D202" s="2">
-        <v>0.88541666666666663</v>
+        <v>0.64722222222222225</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="I202" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>42953</v>
+        <v>42952</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="C203" s="2">
-        <v>0.88153935185185184</v>
+        <v>0.64722222222222225</v>
       </c>
       <c r="D203" s="2">
-        <v>0.88275462962962958</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>315</v>
       </c>
       <c r="H203" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I203" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>42952</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I204" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>42952</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I205" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>42952</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I206" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.88153935185185184</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.88275462962962958</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.828587962962963</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I210" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.83142361111111107</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I211" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.41782407407407413</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I212" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.83726851851851858</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I213" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>42953</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.84062500000000007</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I214" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>42954</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B215" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C215" s="2">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="D215" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="H215" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I222" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I223" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I224" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I225" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I226" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I227" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I228" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I229" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I230" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I231" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I232" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="D234" s="2">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="D235" s="2">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I235" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="D236" s="2">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I236" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="D237" s="2">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="H237" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>42954</v>
-      </c>
-      <c r="B205" s="3" t="s">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="D241" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I242" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C243" s="2">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D243" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I243" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="D244" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="D245" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I249" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="D252" s="2">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C253" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D253" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D254" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D255" s="2">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="D256" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="D259" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C262" s="2">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0.44386574074074076</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D263" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D264" s="2">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D265" s="2">
+        <v>0.45590277777777777</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I265" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D267" s="2">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="D268" s="2">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D269" s="2">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0.87291666666666667</v>
+      </c>
+      <c r="D271" s="2">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D272" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D273" s="2">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="D275" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="D276" s="2">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D277" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="D278" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I278" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="D279" s="2">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="D280" s="20">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I280" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="D281" s="20">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="D282" s="20">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="D283" s="20">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D284" s="20">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I285" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D286" s="20">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C287" s="2">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D287" s="20">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C288" s="2">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="D288" s="20">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C289" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D289" s="20">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C290" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D290" s="22">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
+      <c r="E291" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B292" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C205" s="2">
-        <v>0.54652777777777783</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="E205" s="2" t="s">
+      <c r="C292" s="20">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D292" s="20">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H205" s="2" t="s">
+      <c r="H292" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C293" s="20">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="D293" s="20">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D294" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H294" s="2" t="s">
         <v>334</v>
       </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C295" s="2">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D295" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C296" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D296" s="2">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>42960</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D299" s="2">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D300" s="2">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C301" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="D301" s="2">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I301" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="D302" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="D303" s="2">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I303" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C304" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D304" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I304" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:I205">
@@ -6271,16 +8458,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>42961.716828703706</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>42961.722280092596</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>42961.730057870373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>42961.733090277776</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>42961.745671296296</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>4.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D2">
+        <v>3.75</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H170" sqref="H170"/>
+      <selection pane="bottomRight" activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,7 +8632,7 @@
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -6345,7 +8684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42780</v>
       </c>
@@ -6374,7 +8713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42780</v>
       </c>
@@ -6406,7 +8745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42780</v>
       </c>
@@ -6423,7 +8762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42780</v>
       </c>
@@ -6452,7 +8791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42780</v>
       </c>
@@ -6469,7 +8808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42780</v>
       </c>
@@ -6498,7 +8837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42782</v>
       </c>
@@ -6524,7 +8863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42782</v>
       </c>
@@ -6550,7 +8889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42782</v>
       </c>
@@ -6567,7 +8906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42782</v>
       </c>
@@ -6593,7 +8932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42782</v>
       </c>
@@ -6607,7 +8946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42782</v>
       </c>
@@ -6621,7 +8960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42782</v>
       </c>
@@ -6635,7 +8974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42782</v>
       </c>
@@ -6649,7 +8988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42782</v>
       </c>
@@ -6672,7 +9011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42782</v>
       </c>
@@ -6695,7 +9034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42782</v>
       </c>
@@ -6718,7 +9057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42787</v>
       </c>
@@ -6744,7 +9083,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42787</v>
       </c>
@@ -6770,7 +9109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42787</v>
       </c>
@@ -6796,7 +9135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42787</v>
       </c>
@@ -6822,7 +9161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42790</v>
       </c>
@@ -6843,7 +9182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42790</v>
       </c>
@@ -6860,7 +9199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42790</v>
       </c>
@@ -6880,7 +9219,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42795</v>
       </c>
@@ -6906,7 +9245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42795</v>
       </c>
@@ -6932,7 +9271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42795</v>
       </c>
@@ -6955,7 +9294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42800</v>
       </c>
@@ -6972,7 +9311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42800</v>
       </c>
@@ -6989,7 +9328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42865</v>
       </c>
@@ -7006,7 +9345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42926</v>
       </c>
@@ -7029,7 +9368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42926</v>
       </c>
@@ -7049,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42926</v>
       </c>
@@ -7069,7 +9408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42926</v>
       </c>
@@ -7092,7 +9431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42926</v>
       </c>
@@ -7112,7 +9451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42926</v>
       </c>
@@ -7135,7 +9474,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42926</v>
       </c>
@@ -7155,7 +9494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42926</v>
       </c>
@@ -7175,7 +9514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42926</v>
       </c>
@@ -7195,7 +9534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42926</v>
       </c>
@@ -7215,7 +9554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42926</v>
       </c>
@@ -7235,7 +9574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42926</v>
       </c>
@@ -7255,7 +9594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42927</v>
       </c>
@@ -7331,7 +9670,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42927</v>
       </c>
@@ -7369,7 +9708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42927</v>
       </c>
@@ -7389,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42927</v>
       </c>
@@ -7409,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42927</v>
       </c>
@@ -7429,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42927</v>
       </c>
@@ -7449,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42927</v>
       </c>
@@ -7469,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42927</v>
       </c>
@@ -7489,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42927</v>
       </c>
@@ -7509,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42927</v>
       </c>
@@ -7529,7 +9868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42927</v>
       </c>
@@ -7549,7 +9888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42927</v>
       </c>
@@ -7569,7 +9908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42927</v>
       </c>
@@ -7589,7 +9928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42927</v>
       </c>
@@ -7609,7 +9948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42927</v>
       </c>
@@ -7629,7 +9968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42927</v>
       </c>
@@ -7649,7 +9988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42927</v>
       </c>
@@ -7669,7 +10008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42927</v>
       </c>
@@ -7689,7 +10028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42927</v>
       </c>
@@ -7709,7 +10048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42927</v>
       </c>
@@ -7729,7 +10068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42927</v>
       </c>
@@ -7752,7 +10091,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42927</v>
       </c>
@@ -7772,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42927</v>
       </c>
@@ -7792,7 +10131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42927</v>
       </c>
@@ -7812,7 +10151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42927</v>
       </c>
@@ -7832,7 +10171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42927</v>
       </c>
@@ -7852,7 +10191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42927</v>
       </c>
@@ -7872,7 +10211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42927</v>
       </c>
@@ -7892,7 +10231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42927</v>
       </c>
@@ -7932,7 +10271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42927</v>
       </c>
@@ -7952,7 +10291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42927</v>
       </c>
@@ -7972,7 +10311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42927</v>
       </c>
@@ -7992,7 +10331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42927</v>
       </c>
@@ -8012,7 +10351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42927</v>
       </c>
@@ -8032,7 +10371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42927</v>
       </c>
@@ -8052,7 +10391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42927</v>
       </c>
@@ -8072,7 +10411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42927</v>
       </c>
@@ -8092,7 +10431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42927</v>
       </c>
@@ -8112,7 +10451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42927</v>
       </c>
@@ -8132,7 +10471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42927</v>
       </c>
@@ -8152,7 +10491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42927</v>
       </c>
@@ -8172,7 +10511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42927</v>
       </c>
@@ -8192,7 +10531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42927</v>
       </c>
@@ -8212,7 +10551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42927</v>
       </c>
@@ -8232,7 +10571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42927</v>
       </c>
@@ -8252,7 +10591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42927</v>
       </c>
@@ -8272,7 +10611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42927</v>
       </c>
@@ -8292,7 +10631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42927</v>
       </c>
@@ -8312,7 +10651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42927</v>
       </c>
@@ -8332,7 +10671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42927</v>
       </c>
@@ -8352,7 +10691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42927</v>
       </c>
@@ -8372,7 +10711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42927</v>
       </c>
@@ -8392,7 +10731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42927</v>
       </c>
@@ -8412,7 +10751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42927</v>
       </c>
@@ -8432,7 +10771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42927</v>
       </c>
@@ -8452,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42927</v>
       </c>
@@ -8472,7 +10811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42927</v>
       </c>
@@ -8492,7 +10831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42927</v>
       </c>
@@ -8512,7 +10851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42927</v>
       </c>
@@ -8532,7 +10871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42927</v>
       </c>
@@ -8552,7 +10891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42927</v>
       </c>
@@ -8572,7 +10911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42927</v>
       </c>
@@ -8592,7 +10931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42927</v>
       </c>
@@ -8612,7 +10951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42927</v>
       </c>
@@ -8632,7 +10971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42927</v>
       </c>
@@ -8652,7 +10991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42927</v>
       </c>
@@ -8672,7 +11011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42927</v>
       </c>
@@ -8692,7 +11031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42927</v>
       </c>
@@ -8712,7 +11051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42927</v>
       </c>
@@ -8732,7 +11071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42927</v>
       </c>
@@ -8752,7 +11091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42927</v>
       </c>
@@ -8772,7 +11111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42927</v>
       </c>
@@ -8792,7 +11131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42927</v>
       </c>
@@ -8812,7 +11151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42927</v>
       </c>
@@ -8832,7 +11171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42927</v>
       </c>
@@ -8852,7 +11191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42927</v>
       </c>
@@ -8872,7 +11211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42927</v>
       </c>
@@ -8892,7 +11231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42927</v>
       </c>
@@ -8912,7 +11251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42927</v>
       </c>
@@ -8932,7 +11271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42927</v>
       </c>
@@ -8952,12 +11291,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42927</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C126" s="2">
         <v>0.72152777777777777</v>
@@ -8972,12 +11311,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42927</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C127" s="2">
         <v>0.72152777777777777</v>
@@ -9010,12 +11349,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42927</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C128" s="2">
         <v>0.72430555555555554</v>
@@ -9030,12 +11369,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42927</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C129" s="2">
         <v>0.72430555555555554</v>
@@ -9068,7 +11407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42927</v>
       </c>
@@ -9088,7 +11427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42927</v>
       </c>
@@ -9108,7 +11447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42927</v>
       </c>
@@ -9128,7 +11467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42934</v>
       </c>
@@ -9180,7 +11519,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42934</v>
       </c>
@@ -9206,7 +11545,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42934</v>
       </c>
@@ -9244,7 +11583,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42934</v>
       </c>
@@ -9282,7 +11621,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42934</v>
       </c>
@@ -9320,7 +11659,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42934</v>
       </c>
@@ -9355,12 +11694,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42934</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C140" s="2">
         <v>0.66666666666666663</v>
@@ -9381,12 +11720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42934</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C141" s="2">
         <v>0.66666666666666663</v>
@@ -9433,7 +11772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42934</v>
       </c>
@@ -9456,7 +11795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42934</v>
       </c>
@@ -9479,7 +11818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42936</v>
       </c>
@@ -9517,7 +11856,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42941</v>
       </c>
@@ -9549,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42941</v>
       </c>
@@ -9581,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42941</v>
       </c>
@@ -9607,7 +11946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42941</v>
       </c>
@@ -9645,7 +11984,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42941</v>
       </c>
@@ -9671,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42941</v>
       </c>
@@ -9700,7 +12039,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42941</v>
       </c>
@@ -9726,7 +12065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42941</v>
       </c>
@@ -9752,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42941</v>
       </c>
@@ -9787,12 +12126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>42941</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C155" s="2">
         <v>0.8222222222222223</v>
@@ -9816,12 +12155,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>42941</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C156" s="2">
         <v>0.8256944444444444</v>
@@ -9845,7 +12184,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>42941</v>
       </c>
@@ -9874,7 +12213,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>42941</v>
       </c>
@@ -9932,7 +12271,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>42941</v>
       </c>
@@ -9961,7 +12300,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>42941</v>
       </c>
@@ -9987,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>42941</v>
       </c>
@@ -10013,7 +12352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>42941</v>
       </c>
@@ -10039,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>42948</v>
       </c>
@@ -10068,7 +12407,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>42948</v>
       </c>
@@ -10097,7 +12436,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42948</v>
       </c>
@@ -10126,7 +12465,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42948</v>
       </c>
@@ -10155,7 +12494,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42948</v>
       </c>
@@ -10184,7 +12523,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42948</v>
       </c>
@@ -10248,7 +12587,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42948</v>
       </c>
@@ -10280,7 +12619,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42948</v>
       </c>
@@ -10306,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42948</v>
       </c>
@@ -10332,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42948</v>
       </c>
@@ -10358,7 +12697,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42948</v>
       </c>
@@ -10387,12 +12726,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42948</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C176" s="2">
         <v>0.82638888888888884</v>
@@ -10416,12 +12755,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42948</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C177" s="2">
         <v>0.82638888888888884</v>
@@ -10445,7 +12784,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42948</v>
       </c>
@@ -10471,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42948</v>
       </c>
@@ -10509,7 +12848,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42948</v>
       </c>
@@ -10547,7 +12886,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42948</v>
       </c>
@@ -10585,7 +12924,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42948</v>
       </c>
@@ -10623,7 +12962,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42948</v>
       </c>
@@ -10649,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42948</v>
       </c>
@@ -10675,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42948</v>
       </c>
@@ -10701,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42953</v>
       </c>
@@ -10727,12 +13066,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42950</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C187" s="2">
         <v>0.40972222222222227</v>
@@ -10753,12 +13092,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42950</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C188" s="2">
         <v>0.55972222222222223</v>
@@ -10773,7 +13112,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42955</v>
       </c>
@@ -10796,7 +13135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42955</v>
       </c>
@@ -10819,7 +13158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42955</v>
       </c>
@@ -10842,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42955</v>
       </c>
@@ -10865,7 +13204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42955</v>
       </c>
@@ -10888,10 +13227,10 @@
         <v>0</v>
       </c>
       <c r="N193" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42955</v>
       </c>
@@ -10926,7 +13265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42955</v>
       </c>
@@ -10984,10 +13323,10 @@
         <v>0</v>
       </c>
       <c r="N196" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42955</v>
       </c>
@@ -11022,10 +13361,10 @@
         <v>0</v>
       </c>
       <c r="N197" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42955</v>
       </c>
@@ -11060,13 +13399,13 @@
         <v>0</v>
       </c>
       <c r="M198" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N198" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42955</v>
       </c>
@@ -11092,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42955</v>
       </c>
@@ -11118,7 +13457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42955</v>
       </c>
@@ -11144,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42955</v>
       </c>
@@ -11173,15 +13512,15 @@
         <v>7</v>
       </c>
       <c r="N202" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42955</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C203" s="2">
         <v>0.7993055555555556</v>
@@ -11208,15 +13547,15 @@
         <v>2</v>
       </c>
       <c r="N203" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42955</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C204" s="2">
         <v>0.7993055555555556</v>
@@ -11237,7 +13576,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42955</v>
       </c>
@@ -11250,6 +13589,9 @@
       <c r="E205">
         <v>122.1</v>
       </c>
+      <c r="I205" t="s">
+        <v>318</v>
+      </c>
       <c r="J205" s="15">
         <v>42955.883969907409</v>
       </c>
@@ -11263,7 +13605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42955</v>
       </c>
@@ -11276,6 +13618,9 @@
       <c r="E206">
         <v>146.30000000000001</v>
       </c>
+      <c r="I206" t="s">
+        <v>318</v>
+      </c>
       <c r="J206" s="15">
         <v>42955.884583333333</v>
       </c>
@@ -11289,7 +13634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42955</v>
       </c>
@@ -11302,6 +13647,9 @@
       <c r="E207">
         <v>120.2</v>
       </c>
+      <c r="I207" t="s">
+        <v>318</v>
+      </c>
       <c r="J207" s="15">
         <v>42955.885081018518</v>
       </c>
@@ -11315,7 +13663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42955</v>
       </c>
@@ -11328,6 +13676,9 @@
       <c r="E208">
         <v>138.30000000000001</v>
       </c>
+      <c r="I208" t="s">
+        <v>318</v>
+      </c>
       <c r="J208" s="15">
         <v>42955.883194444446</v>
       </c>
@@ -11341,7 +13692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42955</v>
       </c>
@@ -11354,6 +13705,9 @@
       <c r="E209">
         <v>122.9</v>
       </c>
+      <c r="I209" t="s">
+        <v>394</v>
+      </c>
       <c r="J209" s="15">
         <v>42955.848703703705</v>
       </c>
@@ -11364,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42955</v>
       </c>
@@ -11377,6 +13731,9 @@
       <c r="E210">
         <v>118.3</v>
       </c>
+      <c r="I210" t="s">
+        <v>394</v>
+      </c>
       <c r="J210" s="15">
         <v>42955.85056712963</v>
       </c>
@@ -11387,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42955</v>
       </c>
@@ -11400,6 +13757,9 @@
       <c r="E211">
         <v>121.7</v>
       </c>
+      <c r="I211" t="s">
+        <v>394</v>
+      </c>
       <c r="J211" s="15">
         <v>42955.852951388886</v>
       </c>
@@ -11410,17 +13770,601 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="E212">
+        <v>128.4</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H212" t="s">
+        <v>508</v>
+      </c>
+      <c r="I212" t="s">
+        <v>254</v>
+      </c>
+      <c r="J212" s="15">
+        <v>42957.736493055556</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>42959</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="I213" t="s">
+        <v>254</v>
+      </c>
+      <c r="J213" s="15">
+        <v>42959.45590277778</v>
+      </c>
+      <c r="K213">
+        <v>4</v>
+      </c>
+      <c r="N213" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B214" t="s">
+        <v>224</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="E214">
+        <v>122</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H214" t="s">
+        <v>27</v>
+      </c>
+      <c r="I214" t="s">
+        <v>27</v>
+      </c>
+      <c r="J214" s="15">
+        <v>42962.381944444445</v>
+      </c>
+      <c r="K214">
+        <v>8</v>
+      </c>
+      <c r="N214" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B215" t="s">
+        <v>213</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="E215">
+        <v>125.6</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H215" t="s">
+        <v>27</v>
+      </c>
+      <c r="I215" t="s">
+        <v>27</v>
+      </c>
+      <c r="J215" s="15">
+        <v>42962.397314814814</v>
+      </c>
+      <c r="K215">
+        <v>6</v>
+      </c>
+      <c r="N215" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B216" t="s">
+        <v>206</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E216">
+        <v>119.9</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H216" t="s">
+        <v>27</v>
+      </c>
+      <c r="I216" t="s">
+        <v>27</v>
+      </c>
+      <c r="J216" s="15">
+        <v>42962.403182870374</v>
+      </c>
+      <c r="K216">
+        <v>5</v>
+      </c>
+      <c r="N216" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B217" t="s">
+        <v>176</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="E217">
+        <v>114.3</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H217" t="s">
+        <v>27</v>
+      </c>
+      <c r="I217" t="s">
+        <v>27</v>
+      </c>
+      <c r="J217" s="15">
+        <v>42962.389745370368</v>
+      </c>
+      <c r="K217">
+        <v>7</v>
+      </c>
+      <c r="N217" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="E218">
+        <v>120.5</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H218" t="s">
+        <v>27</v>
+      </c>
+      <c r="I218" t="s">
+        <v>27</v>
+      </c>
+      <c r="J218" s="15">
+        <v>42962.385416666664</v>
+      </c>
+      <c r="K218">
+        <v>7</v>
+      </c>
+      <c r="N218" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B219" t="s">
+        <v>190</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H219" t="s">
+        <v>27</v>
+      </c>
+      <c r="I219" t="s">
+        <v>254</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="N219" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B220" t="s">
+        <v>190</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="D220">
+        <v>117.8</v>
+      </c>
+      <c r="E220">
+        <v>121.1</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H220" t="s">
+        <v>19</v>
+      </c>
+      <c r="I220" t="s">
+        <v>254</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K220">
+        <v>4</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B221" t="s">
+        <v>190</v>
+      </c>
+      <c r="C221" s="22"/>
+      <c r="I221" t="s">
+        <v>318</v>
+      </c>
+      <c r="J221" s="15">
+        <v>42962.685474537036</v>
+      </c>
+      <c r="K221" t="s">
+        <v>511</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B222" t="s">
+        <v>186</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="D222">
+        <v>129.9</v>
+      </c>
+      <c r="E222">
+        <v>132.6</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H222" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" t="s">
+        <v>254</v>
+      </c>
+      <c r="J222" s="15">
+        <v>42962.459594907406</v>
+      </c>
+      <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B223" t="s">
+        <v>193</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="D223">
+        <v>116.2</v>
+      </c>
+      <c r="E223">
+        <v>119.4</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H223" t="s">
+        <v>19</v>
+      </c>
+      <c r="I223" t="s">
+        <v>254</v>
+      </c>
+      <c r="J223" s="15">
+        <v>42962.470601851855</v>
+      </c>
+      <c r="K223">
+        <v>4</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B224" t="s">
+        <v>173</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="D224">
+        <v>117</v>
+      </c>
+      <c r="E224">
+        <v>120.4</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H224" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" t="s">
+        <v>254</v>
+      </c>
+      <c r="J224" s="15">
+        <v>42962.480937499997</v>
+      </c>
+      <c r="K224">
+        <v>8</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B225" t="s">
+        <v>178</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E225">
+        <v>121</v>
+      </c>
+      <c r="I225" t="s">
+        <v>440</v>
+      </c>
+      <c r="J225" s="15">
+        <v>42962.678599537037</v>
+      </c>
+      <c r="K225">
+        <v>5</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B226" t="s">
+        <v>204</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E226">
+        <v>115.6</v>
+      </c>
+      <c r="I226" t="s">
+        <v>440</v>
+      </c>
+      <c r="J226" s="15">
+        <v>42962.67591435185</v>
+      </c>
+      <c r="K226">
+        <v>5</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B227" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E227">
+        <v>123.1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>440</v>
+      </c>
+      <c r="J227" s="15">
+        <v>42962.674444444441</v>
+      </c>
+      <c r="K227">
+        <v>8</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B228" t="s">
+        <v>218</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="E228">
+        <v>115.7</v>
+      </c>
+      <c r="I228" t="s">
+        <v>516</v>
+      </c>
+      <c r="J228" s="15">
+        <v>42962.665821759256</v>
+      </c>
+      <c r="K228" t="s">
+        <v>512</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B229" t="s">
+        <v>208</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="E229">
+        <v>139.4</v>
+      </c>
+      <c r="I229" t="s">
+        <v>516</v>
+      </c>
+      <c r="J229" s="15">
+        <v>42962.663599537038</v>
+      </c>
+      <c r="K229" t="s">
+        <v>513</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B230" t="s">
+        <v>214</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E230">
+        <v>137</v>
+      </c>
+      <c r="I230" t="s">
+        <v>516</v>
+      </c>
+      <c r="J230" s="15">
+        <v>42962.660868055558</v>
+      </c>
+      <c r="K230" t="s">
+        <v>514</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B231" t="s">
+        <v>209</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="E231">
+        <v>122.5</v>
+      </c>
+      <c r="I231" t="s">
+        <v>516</v>
+      </c>
+      <c r="J231" s="15">
+        <v>42962.658148148148</v>
+      </c>
+      <c r="K231" t="s">
+        <v>515</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N211">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Z526"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N212"/>
   <sortState ref="A2:N185">
     <sortCondition ref="A2:A185"/>
     <sortCondition ref="C2:C185"/>
@@ -11806,13 +14750,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12585,10 +15529,10 @@
         <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E51" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -12616,7 +15560,7 @@
         <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,7 +15588,7 @@
         <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -12669,9 +15613,167 @@
         <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>42962.363194444442</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>431</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>42962.421111111114</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>42962.422465277778</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>42962.423391203702</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>500</v>
+      </c>
+      <c r="E61" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>42962.60765046296</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>42962.424016203702</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>42962.431504629632</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>42962.449270833335</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>42962.459976851853</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>42962.472094907411</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12687,13 +15789,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G439"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D432" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A440" sqref="A440"/>
+      <selection pane="bottomRight" activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20564,7 +23666,9 @@
       <c r="D438" s="21">
         <v>42950.353472222225</v>
       </c>
-      <c r="E438" s="21"/>
+      <c r="E438" s="12" t="s">
+        <v>297</v>
+      </c>
       <c r="F438" s="12" t="s">
         <v>494</v>
       </c>
@@ -20586,7 +23690,7 @@
         <v>42950.355555555558</v>
       </c>
       <c r="E439" s="12" t="s">
-        <v>496</v>
+        <v>297</v>
       </c>
       <c r="F439" s="12" t="s">
         <v>495</v>
@@ -20595,7 +23699,226 @@
         <v>420</v>
       </c>
     </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440">
+        <v>87</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D440" s="12">
+        <v>42956.625694444447</v>
+      </c>
+      <c r="E440" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F440" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>4</v>
+      </c>
+      <c r="B441">
+        <v>87</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D441" s="12">
+        <v>42956.62777777778</v>
+      </c>
+      <c r="E441" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F441" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G441" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>4</v>
+      </c>
+      <c r="B442">
+        <v>88</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D442" s="12">
+        <v>42957.449305555558</v>
+      </c>
+      <c r="E442" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F442" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G442" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443">
+        <v>88</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D443" s="12">
+        <v>42957.451388888891</v>
+      </c>
+      <c r="E443" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G443" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>6</v>
+      </c>
+      <c r="B444">
+        <v>89</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D444" s="12">
+        <v>42952.611990740741</v>
+      </c>
+      <c r="E444" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>6</v>
+      </c>
+      <c r="B445">
+        <v>89</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D445" s="12">
+        <v>42952.613888888889</v>
+      </c>
+      <c r="E445" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F445" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>6</v>
+      </c>
+      <c r="B446">
+        <v>90</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D446" s="12">
+        <v>42952.613888888889</v>
+      </c>
+      <c r="E446" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F446" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>6</v>
+      </c>
+      <c r="B447">
+        <v>90</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D447" s="12">
+        <v>42952.614583333336</v>
+      </c>
+      <c r="E447" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F447" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4</v>
+      </c>
+      <c r="B448">
+        <v>91</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D448" s="12">
+        <v>42952.615393518521</v>
+      </c>
+      <c r="E448" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G448" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>4</v>
+      </c>
+      <c r="B449">
+        <v>91</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D449" s="12">
+        <v>42952.616782407407</v>
+      </c>
+      <c r="E449" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F449" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G449" t="s">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G444"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
